--- a/updateOct11/cpu/round_robin10.xlsx
+++ b/updateOct11/cpu/round_robin10.xlsx
@@ -12,7 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>AVG_QUEUE_SIZE</t>
+  </si>
+  <si>
+    <t>CPU_TIME</t>
+  </si>
+  <si>
+    <t>TURNAROUND</t>
+  </si>
+  <si>
+    <t>WAITCPU_TIME</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,520 +71,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>62471.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>959.8766879901145</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2.785276002760184E12</v>
-      </c>
-      <c r="D1" t="n">
-        <v>6.260067703790091E8</v>
-      </c>
-      <c r="E1" t="n">
-        <v>101946.87668785226</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>128848.0</v>
+        <v>62403.0</v>
       </c>
       <c r="B2" t="n">
-        <v>960.0023125158377</v>
+        <v>960.0257026371994</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8767008636909097E12</v>
+        <v>2.783915658071659E12</v>
       </c>
       <c r="D2" t="n">
-        <v>6.470152613485415E8</v>
+        <v>6.255783838596869E8</v>
       </c>
       <c r="E2" t="n">
-        <v>101913.00231237864</v>
+        <v>101943.02570249951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>195784.0</v>
+        <v>129209.0</v>
       </c>
       <c r="B3" t="n">
-        <v>959.7181531142297</v>
+        <v>958.9664680095834</v>
       </c>
       <c r="C3" t="n">
-        <v>2.9102508538100503E12</v>
+        <v>2.8804703380879507E12</v>
       </c>
       <c r="D3" t="n">
-        <v>6.547296752558955E8</v>
+        <v>6.478023058769478E8</v>
       </c>
       <c r="E3" t="n">
-        <v>101904.71815297681</v>
+        <v>101890.96646787207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>261710.0</v>
+        <v>195295.0</v>
       </c>
       <c r="B4" t="n">
-        <v>959.2579221210259</v>
+        <v>959.3051877123781</v>
       </c>
       <c r="C4" t="n">
-        <v>2.9223487381769336E12</v>
+        <v>2.9076420937394233E12</v>
       </c>
       <c r="D4" t="n">
-        <v>6.575225874583116E8</v>
+        <v>6.541706620916799E8</v>
       </c>
       <c r="E4" t="n">
-        <v>101906.25792198289</v>
+        <v>101916.30518757424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>329227.0</v>
+        <v>261721.0</v>
       </c>
       <c r="B5" t="n">
-        <v>959.6325743877538</v>
+        <v>959.8794648414189</v>
       </c>
       <c r="C5" t="n">
-        <v>2.9388562819581353E12</v>
+        <v>2.9219671362452935E12</v>
       </c>
       <c r="D5" t="n">
-        <v>6.61282406490798E8</v>
+        <v>6.57719564563357E8</v>
       </c>
       <c r="E5" t="n">
-        <v>101917.63257425025</v>
+        <v>101978.87946470334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>395774.0</v>
+        <v>328622.0</v>
       </c>
       <c r="B6" t="n">
-        <v>959.7789616128454</v>
+        <v>959.1426265838172</v>
       </c>
       <c r="C6" t="n">
-        <v>2.943444295039882E12</v>
+        <v>2.934771033419676E12</v>
       </c>
       <c r="D6" t="n">
-        <v>6.622311528430073E8</v>
+        <v>6.603310011878334E8</v>
       </c>
       <c r="E6" t="n">
-        <v>101907.77896147543</v>
+        <v>101910.14262644618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>461003.0</v>
+        <v>394647.0</v>
       </c>
       <c r="B7" t="n">
-        <v>959.3677457571995</v>
+        <v>958.9754931824397</v>
       </c>
       <c r="C7" t="n">
-        <v>2.9419983959276143E12</v>
+        <v>2.942575123783542E12</v>
       </c>
       <c r="D7" t="n">
-        <v>6.621593095477604E8</v>
+        <v>6.616993892823764E8</v>
       </c>
       <c r="E7" t="n">
-        <v>101913.3677456192</v>
+        <v>101868.97549304544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>527976.0</v>
+        <v>461831.0</v>
       </c>
       <c r="B8" t="n">
-        <v>959.4485493923935</v>
+        <v>959.6621724942127</v>
       </c>
       <c r="C8" t="n">
-        <v>2.9458147192561284E12</v>
+        <v>2.9471917323990435E12</v>
       </c>
       <c r="D8" t="n">
-        <v>6.630693039401277E8</v>
+        <v>6.630695180553486E8</v>
       </c>
       <c r="E8" t="n">
-        <v>101930.4485492547</v>
+        <v>101929.66217235663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>595418.0</v>
+        <v>527513.0</v>
       </c>
       <c r="B9" t="n">
-        <v>960.4553443829225</v>
+        <v>959.5885021110286</v>
       </c>
       <c r="C9" t="n">
-        <v>2.9508144826052393E12</v>
+        <v>2.946079392985977E12</v>
       </c>
       <c r="D9" t="n">
-        <v>6.642604835399755E8</v>
+        <v>6.629739162141402E8</v>
       </c>
       <c r="E9" t="n">
-        <v>101963.4553442458</v>
+        <v>101934.58850197314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>662117.0</v>
+        <v>593921.0</v>
       </c>
       <c r="B10" t="n">
-        <v>960.8260195850497</v>
+        <v>959.9337526587609</v>
       </c>
       <c r="C10" t="n">
-        <v>2.9535829863415405E12</v>
+        <v>2.94807510995168E12</v>
       </c>
       <c r="D10" t="n">
-        <v>6.646392210038487E8</v>
+        <v>6.633698641949131E8</v>
       </c>
       <c r="E10" t="n">
-        <v>101960.82601944759</v>
+        <v>101913.93375252093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>727549.0</v>
+        <v>662768.0</v>
       </c>
       <c r="B11" t="n">
-        <v>959.6715185431078</v>
+        <v>960.1095193463063</v>
       </c>
       <c r="C11" t="n">
-        <v>2.9523686090158716E12</v>
+        <v>2.9572767256712046E12</v>
       </c>
       <c r="D11" t="n">
-        <v>6.643861854920971E8</v>
+        <v>6.653288060687983E8</v>
       </c>
       <c r="E11" t="n">
-        <v>101910.67151840533</v>
+        <v>101922.10951920827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>793359.0</v>
+        <v>728188.0</v>
       </c>
       <c r="B12" t="n">
-        <v>959.3290300347747</v>
+        <v>959.3753640442961</v>
       </c>
       <c r="C12" t="n">
-        <v>2.9543327535466924E12</v>
+        <v>2.956595047072718E12</v>
       </c>
       <c r="D12" t="n">
-        <v>6.647214537997043E8</v>
+        <v>6.651791576792332E8</v>
       </c>
       <c r="E12" t="n">
-        <v>101935.32902989691</v>
+        <v>101926.37536390714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>861935.0</v>
+        <v>795511.0</v>
       </c>
       <c r="B13" t="n">
-        <v>959.7296190853212</v>
+        <v>960.0637769725209</v>
       </c>
       <c r="C13" t="n">
-        <v>2.9577966518169434E12</v>
+        <v>2.9582431786870835E12</v>
       </c>
       <c r="D13" t="n">
-        <v>6.654981094567736E8</v>
+        <v>6.656792688796006E8</v>
       </c>
       <c r="E13" t="n">
-        <v>101931.72961894804</v>
+        <v>101980.06377683497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>928319.0</v>
+        <v>860315.0</v>
       </c>
       <c r="B14" t="n">
-        <v>959.9290932138811</v>
+        <v>959.0636911997595</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9568725058326616E12</v>
+        <v>2.9534145532856875E12</v>
       </c>
       <c r="D14" t="n">
-        <v>6.656594771224643E8</v>
+        <v>6.648327886166549E8</v>
       </c>
       <c r="E14" t="n">
-        <v>101966.92909307616</v>
+        <v>101882.06369106234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>990759.0</v>
+        <v>927336.0</v>
       </c>
       <c r="B15" t="n">
-        <v>959.9458885417349</v>
+        <v>959.9474719812864</v>
       </c>
       <c r="C15" t="n">
-        <v>2.9535040227821206E12</v>
+        <v>2.9577365239609863E12</v>
       </c>
       <c r="D15" t="n">
-        <v>6.645743647873572E8</v>
+        <v>6.655301147376338E8</v>
       </c>
       <c r="E15" t="n">
-        <v>101949.94588840342</v>
+        <v>101946.947471843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1057292.0</v>
+        <v>994366.0</v>
       </c>
       <c r="B16" t="n">
-        <v>959.5034488194955</v>
+        <v>959.796312917564</v>
       </c>
       <c r="C16" t="n">
-        <v>2.956168307863959E12</v>
+        <v>2.9619154687294414E12</v>
       </c>
       <c r="D16" t="n">
-        <v>6.651199828104029E8</v>
+        <v>6.664497114001894E8</v>
       </c>
       <c r="E16" t="n">
-        <v>101883.50344868164</v>
+        <v>101922.79631278053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1130167.0</v>
+        <v>1061022.0</v>
       </c>
       <c r="B17" t="n">
-        <v>958.6148785272158</v>
+        <v>959.8604235380327</v>
       </c>
       <c r="C17" t="n">
-        <v>2.9682540866395874E12</v>
+        <v>2.9555645748945347E12</v>
       </c>
       <c r="D17" t="n">
-        <v>6.676613013712513E8</v>
+        <v>6.65548484817309E8</v>
       </c>
       <c r="E17" t="n">
-        <v>101877.61487839026</v>
+        <v>101949.86042340098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1194824.0</v>
+        <v>1126263.0</v>
       </c>
       <c r="B18" t="n">
-        <v>959.4471419736752</v>
+        <v>959.572119348961</v>
       </c>
       <c r="C18" t="n">
-        <v>2.9607125806144185E12</v>
+        <v>2.9626035820619575E12</v>
       </c>
       <c r="D18" t="n">
-        <v>6.663943274542141E8</v>
+        <v>6.664083742849787E8</v>
       </c>
       <c r="E18" t="n">
-        <v>101910.44714183618</v>
+        <v>101912.57211921088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1262448.0</v>
+        <v>1193257.0</v>
       </c>
       <c r="B19" t="n">
-        <v>960.2342512520484</v>
+        <v>960.1505361295063</v>
       </c>
       <c r="C19" t="n">
-        <v>2.966387803491388E12</v>
+        <v>2.9598670962116147E12</v>
       </c>
       <c r="D19" t="n">
-        <v>6.675895611103725E8</v>
+        <v>6.662710527025216E8</v>
       </c>
       <c r="E19" t="n">
-        <v>101971.2342511142</v>
+        <v>101939.15053599168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1325209.0</v>
+        <v>1262377.0</v>
       </c>
       <c r="B20" t="n">
-        <v>960.1102541446647</v>
+        <v>960.2161569143518</v>
       </c>
       <c r="C20" t="n">
-        <v>2.961689958089809E12</v>
+        <v>2.966140036164048E12</v>
       </c>
       <c r="D20" t="n">
-        <v>6.665396862795005E8</v>
+        <v>6.675999231612424E8</v>
       </c>
       <c r="E20" t="n">
-        <v>101946.11025400712</v>
+        <v>101972.21615677615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1393009.0</v>
+        <v>1325110.0</v>
       </c>
       <c r="B21" t="n">
-        <v>959.0261168270098</v>
+        <v>960.2518117980746</v>
       </c>
       <c r="C21" t="n">
-        <v>2.9608839849356772E12</v>
+        <v>2.9609253762653403E12</v>
       </c>
       <c r="D21" t="n">
-        <v>6.665930851542516E8</v>
+        <v>6.664675072958002E8</v>
       </c>
       <c r="E21" t="n">
-        <v>101882.02611668989</v>
+        <v>101949.2518116607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1458554.0</v>
+        <v>1394876.0</v>
       </c>
       <c r="B22" t="n">
-        <v>959.1811057308147</v>
+        <v>959.3186282540831</v>
       </c>
       <c r="C22" t="n">
-        <v>2.9647621662665303E12</v>
+        <v>2.963392873125126E12</v>
       </c>
       <c r="D22" t="n">
-        <v>6.670173237717712E8</v>
+        <v>6.670959347559503E8</v>
       </c>
       <c r="E22" t="n">
-        <v>101911.18110559304</v>
+        <v>101911.3186281164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1524690.0</v>
+        <v>1461320.0</v>
       </c>
       <c r="B23" t="n">
-        <v>960.0999136930895</v>
+        <v>959.7991097993146</v>
       </c>
       <c r="C23" t="n">
-        <v>2.9632612507877324E12</v>
+        <v>2.963301249586045E12</v>
       </c>
       <c r="D23" t="n">
-        <v>6.669045544246948E8</v>
+        <v>6.669571413058434E8</v>
       </c>
       <c r="E23" t="n">
-        <v>101953.09991355518</v>
+        <v>101911.79910966237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1596756.0</v>
+        <v>1524585.0</v>
       </c>
       <c r="B24" t="n">
-        <v>959.7945573453028</v>
+        <v>959.308977874974</v>
       </c>
       <c r="C24" t="n">
-        <v>2.9695834016582417E12</v>
+        <v>2.9627222848627954E12</v>
       </c>
       <c r="D24" t="n">
-        <v>6.681089710756946E8</v>
+        <v>6.668498244339076E8</v>
       </c>
       <c r="E24" t="n">
-        <v>101898.79455720815</v>
+        <v>101925.30897773715</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1655851.0</v>
+        <v>1594329.0</v>
       </c>
       <c r="B25" t="n">
-        <v>959.1062804212922</v>
+        <v>959.5841879311876</v>
       </c>
       <c r="C25" t="n">
-        <v>2.966396624057079E12</v>
+        <v>2.9626804246767173E12</v>
       </c>
       <c r="D25" t="n">
-        <v>6.671364389995167E8</v>
+        <v>6.666703442049644E8</v>
       </c>
       <c r="E25" t="n">
-        <v>101896.10628028342</v>
+        <v>101909.58418779362</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1723339.0</v>
+        <v>1657090.0</v>
       </c>
       <c r="B26" t="n">
-        <v>959.2316914055592</v>
+        <v>959.1672655077429</v>
       </c>
       <c r="C26" t="n">
-        <v>2.9615310236234453E12</v>
+        <v>2.9616806685294736E12</v>
       </c>
       <c r="D26" t="n">
-        <v>6.663815472964611E8</v>
+        <v>6.666027125521823E8</v>
       </c>
       <c r="E26" t="n">
-        <v>101902.2316912679</v>
+        <v>101901.16726536996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1793715.0</v>
+        <v>1728011.0</v>
       </c>
       <c r="B27" t="n">
-        <v>959.5457227783537</v>
+        <v>960.3563587050373</v>
       </c>
       <c r="C27" t="n">
-        <v>2.96179793574778E12</v>
+        <v>2.9649508524045205E12</v>
       </c>
       <c r="D27" t="n">
-        <v>6.669364992154917E8</v>
+        <v>6.671905917040585E8</v>
       </c>
       <c r="E27" t="n">
-        <v>101932.54572264069</v>
+        <v>101924.35635856702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1856094.0</v>
+        <v>1792268.0</v>
       </c>
       <c r="B28" t="n">
-        <v>959.254577416541</v>
+        <v>959.7554528510846</v>
       </c>
       <c r="C28" t="n">
-        <v>2.964755988059045E12</v>
+        <v>2.964447013465534E12</v>
       </c>
       <c r="D28" t="n">
-        <v>6.668686882171941E8</v>
+        <v>6.673137152173808E8</v>
       </c>
       <c r="E28" t="n">
-        <v>101896.25457727951</v>
+        <v>101932.75545271368</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1927192.0</v>
+        <v>1859467.0</v>
       </c>
       <c r="B29" t="n">
-        <v>959.8395368068828</v>
+        <v>960.1471547495421</v>
       </c>
       <c r="C29" t="n">
-        <v>2.9636275182858203E12</v>
+        <v>2.9657399354023037E12</v>
       </c>
       <c r="D29" t="n">
-        <v>6.671763537918614E8</v>
+        <v>6.672749212259178E8</v>
       </c>
       <c r="E29" t="n">
-        <v>101907.83953666952</v>
+        <v>101930.14715461202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1993228.0</v>
+        <v>1922596.0</v>
       </c>
       <c r="B30" t="n">
-        <v>958.9817419628401</v>
+        <v>960.3152587744233</v>
       </c>
       <c r="C30" t="n">
-        <v>2.9617506380431074E12</v>
+        <v>2.9616798486542056E12</v>
       </c>
       <c r="D30" t="n">
-        <v>6.668218088604475E8</v>
+        <v>6.665949898227134E8</v>
       </c>
       <c r="E30" t="n">
-        <v>101905.98174182545</v>
+        <v>101993.31525863656</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1994756.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>959.6978950091094</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.9673323410611914E12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.67791934725407E8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>101920.69789487091</v>
       </c>
     </row>
   </sheetData>

--- a/updateOct11/cpu/round_robin10.xlsx
+++ b/updateOct11/cpu/round_robin10.xlsx
@@ -96,512 +96,512 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62403.0</v>
+        <v>61606.0</v>
       </c>
       <c r="B2" t="n">
-        <v>960.0257026371994</v>
+        <v>959.189894067713</v>
       </c>
       <c r="C2" t="n">
-        <v>2.783915658071659E12</v>
+        <v>1.8955582158866934E11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.255783838596869E8</v>
+        <v>4.259260780249771E7</v>
       </c>
       <c r="E2" t="n">
-        <v>101943.02570249951</v>
+        <v>7022.249894095746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>129209.0</v>
+        <v>128310.0</v>
       </c>
       <c r="B3" t="n">
-        <v>958.9664680095834</v>
+        <v>959.1539798685804</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8804703380879507E12</v>
+        <v>3.6728704373724603E11</v>
       </c>
       <c r="D3" t="n">
-        <v>6.478023058769478E8</v>
+        <v>8.26236662343884E7</v>
       </c>
       <c r="E3" t="n">
-        <v>101890.96646787207</v>
+        <v>13076.153979869561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>195295.0</v>
+        <v>194658.0</v>
       </c>
       <c r="B4" t="n">
-        <v>959.3051877123781</v>
+        <v>959.4361003105458</v>
       </c>
       <c r="C4" t="n">
-        <v>2.9076420937394233E12</v>
+        <v>5.4404922122274066E11</v>
       </c>
       <c r="D4" t="n">
-        <v>6.541706620916799E8</v>
+        <v>1.2239237741744444E8</v>
       </c>
       <c r="E4" t="n">
-        <v>101916.30518757424</v>
+        <v>19134.45610031789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>261721.0</v>
+        <v>261218.0</v>
       </c>
       <c r="B5" t="n">
-        <v>959.8794648414189</v>
+        <v>960.386714627813</v>
       </c>
       <c r="C5" t="n">
-        <v>2.9219671362452935E12</v>
+        <v>7.206005170439127E11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.57719564563357E8</v>
+        <v>1.6218659543715218E8</v>
       </c>
       <c r="E5" t="n">
-        <v>101978.87946470334</v>
+        <v>25204.226714730376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>328622.0</v>
+        <v>328080.0</v>
       </c>
       <c r="B6" t="n">
-        <v>959.1426265838172</v>
+        <v>959.847856083703</v>
       </c>
       <c r="C6" t="n">
-        <v>2.934771033419676E12</v>
+        <v>8.973020111386176E11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.603310011878334E8</v>
+        <v>2.0195284219197965E8</v>
       </c>
       <c r="E6" t="n">
-        <v>101910.14262644618</v>
+        <v>31267.34785630211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>394647.0</v>
+        <v>394220.0</v>
       </c>
       <c r="B7" t="n">
-        <v>958.9754931824397</v>
+        <v>960.0436898664883</v>
       </c>
       <c r="C7" t="n">
-        <v>2.942575123783542E12</v>
+        <v>1.073935494192568E12</v>
       </c>
       <c r="D7" t="n">
-        <v>6.616993892823764E8</v>
+        <v>2.4169701707991722E8</v>
       </c>
       <c r="E7" t="n">
-        <v>101868.97549304544</v>
+        <v>37306.24368997436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>461831.0</v>
+        <v>461551.0</v>
       </c>
       <c r="B8" t="n">
-        <v>959.6621724942127</v>
+        <v>959.709630921987</v>
       </c>
       <c r="C8" t="n">
-        <v>2.9471917323990435E12</v>
+        <v>1.2521004357293523E12</v>
       </c>
       <c r="D8" t="n">
-        <v>6.630695180553486E8</v>
+        <v>2.8173134567952704E8</v>
       </c>
       <c r="E8" t="n">
-        <v>101929.66217235663</v>
+        <v>43388.229630830305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>527513.0</v>
+        <v>527246.0</v>
       </c>
       <c r="B9" t="n">
-        <v>959.5885021110286</v>
+        <v>959.3459052917375</v>
       </c>
       <c r="C9" t="n">
-        <v>2.946079392985977E12</v>
+        <v>1.4271755986121926E12</v>
       </c>
       <c r="D9" t="n">
-        <v>6.629739162141402E8</v>
+        <v>3.2111858016557485E8</v>
       </c>
       <c r="E9" t="n">
-        <v>101934.58850197314</v>
+        <v>49407.425904989745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>593921.0</v>
+        <v>592720.0</v>
       </c>
       <c r="B10" t="n">
-        <v>959.9337526587609</v>
+        <v>960.396852341065</v>
       </c>
       <c r="C10" t="n">
-        <v>2.94807510995168E12</v>
+        <v>1.6004967839292544E12</v>
       </c>
       <c r="D10" t="n">
-        <v>6.633698641949131E8</v>
+        <v>3.6029485932489014E8</v>
       </c>
       <c r="E10" t="n">
-        <v>101913.93375252093</v>
+        <v>55522.05685181454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>662768.0</v>
+        <v>660392.0</v>
       </c>
       <c r="B11" t="n">
-        <v>960.1095193463063</v>
+        <v>958.9296945018265</v>
       </c>
       <c r="C11" t="n">
-        <v>2.9572767256712046E12</v>
+        <v>1.7806735631109258E12</v>
       </c>
       <c r="D11" t="n">
-        <v>6.653288060687983E8</v>
+        <v>4.0069071035086316E8</v>
       </c>
       <c r="E11" t="n">
-        <v>101922.10951920827</v>
+        <v>61545.72969375472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>728188.0</v>
+        <v>727264.0</v>
       </c>
       <c r="B12" t="n">
-        <v>959.3753640442961</v>
+        <v>959.5025394509189</v>
       </c>
       <c r="C12" t="n">
-        <v>2.956595047072718E12</v>
+        <v>1.959575455748444E12</v>
       </c>
       <c r="D12" t="n">
-        <v>6.651791576792332E8</v>
+        <v>4.4088791198668927E8</v>
       </c>
       <c r="E12" t="n">
-        <v>101926.37536390714</v>
+        <v>67595.80253845913</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>795511.0</v>
+        <v>794004.0</v>
       </c>
       <c r="B13" t="n">
-        <v>960.0637769725209</v>
+        <v>959.587515006598</v>
       </c>
       <c r="C13" t="n">
-        <v>2.9582431786870835E12</v>
+        <v>2.1360672409610576E12</v>
       </c>
       <c r="D13" t="n">
-        <v>6.656792688796006E8</v>
+        <v>4.8059733823787904E8</v>
       </c>
       <c r="E13" t="n">
-        <v>101980.06377683497</v>
+        <v>73663.98751373764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>860315.0</v>
+        <v>860101.0</v>
       </c>
       <c r="B14" t="n">
-        <v>959.0636911997595</v>
+        <v>959.2632294303097</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9534145532856875E12</v>
+        <v>2.3114367761244585E12</v>
       </c>
       <c r="D14" t="n">
-        <v>6.648327886166549E8</v>
+        <v>5.19938093626502E8</v>
       </c>
       <c r="E14" t="n">
-        <v>101882.06369106234</v>
+        <v>79698.46322788863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>927336.0</v>
+        <v>924358.0</v>
       </c>
       <c r="B15" t="n">
-        <v>959.9474719812864</v>
+        <v>960.0883765571574</v>
       </c>
       <c r="C15" t="n">
-        <v>2.9577365239609863E12</v>
+        <v>2.487459982375748E12</v>
       </c>
       <c r="D15" t="n">
-        <v>6.655301147376338E8</v>
+        <v>5.593797676260053E8</v>
       </c>
       <c r="E15" t="n">
-        <v>101946.947471843</v>
+        <v>85762.40837475332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>994366.0</v>
+        <v>992993.0</v>
       </c>
       <c r="B16" t="n">
-        <v>959.796312917564</v>
+        <v>960.174869023051</v>
       </c>
       <c r="C16" t="n">
-        <v>2.9619154687294414E12</v>
+        <v>2.663212411581236E12</v>
       </c>
       <c r="D16" t="n">
-        <v>6.664497114001894E8</v>
+        <v>5.995231361580825E8</v>
       </c>
       <c r="E16" t="n">
-        <v>101922.79631278053</v>
+        <v>91884.17486695321</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1061022.0</v>
+        <v>1059417.0</v>
       </c>
       <c r="B17" t="n">
-        <v>959.8604235380327</v>
+        <v>959.3743938405069</v>
       </c>
       <c r="C17" t="n">
-        <v>2.9555645748945347E12</v>
+        <v>2.8422773302650845E12</v>
       </c>
       <c r="D17" t="n">
-        <v>6.65548484817309E8</v>
+        <v>6.395022869609377E8</v>
       </c>
       <c r="E17" t="n">
-        <v>101949.86042340098</v>
+        <v>97866.81439152543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1126263.0</v>
+        <v>1124602.0</v>
       </c>
       <c r="B18" t="n">
-        <v>959.572119348961</v>
+        <v>959.9263814501488</v>
       </c>
       <c r="C18" t="n">
-        <v>2.9626035820619575E12</v>
+        <v>3.0144009570270337E12</v>
       </c>
       <c r="D18" t="n">
-        <v>6.664083742849787E8</v>
+        <v>6.78268381422689E8</v>
       </c>
       <c r="E18" t="n">
-        <v>101912.57211921088</v>
+        <v>103960.42637887696</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1193257.0</v>
+        <v>1190813.0</v>
       </c>
       <c r="B19" t="n">
-        <v>960.1505361295063</v>
+        <v>959.0748038180634</v>
       </c>
       <c r="C19" t="n">
-        <v>2.9598670962116147E12</v>
+        <v>3.189496492973313E12</v>
       </c>
       <c r="D19" t="n">
-        <v>6.662710527025216E8</v>
+        <v>7.178794190625107E8</v>
       </c>
       <c r="E19" t="n">
-        <v>101939.15053599168</v>
+        <v>109968.39480101124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1262377.0</v>
+        <v>1262278.0</v>
       </c>
       <c r="B20" t="n">
-        <v>960.2161569143518</v>
+        <v>960.1549265765523</v>
       </c>
       <c r="C20" t="n">
-        <v>2.966140036164048E12</v>
+        <v>3.376054708811765E12</v>
       </c>
       <c r="D20" t="n">
-        <v>6.675999231612424E8</v>
+        <v>7.598509856109288E8</v>
       </c>
       <c r="E20" t="n">
-        <v>101972.21615677615</v>
+        <v>116061.69492351632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1325110.0</v>
+        <v>1323753.0</v>
       </c>
       <c r="B21" t="n">
-        <v>960.2518117980746</v>
+        <v>959.572156967292</v>
       </c>
       <c r="C21" t="n">
-        <v>2.9609253762653403E12</v>
+        <v>3.5426493572105303E12</v>
       </c>
       <c r="D21" t="n">
-        <v>6.664675072958002E8</v>
+        <v>7.971230770861025E8</v>
       </c>
       <c r="E21" t="n">
-        <v>101949.2518116607</v>
+        <v>122082.77215366767</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1394876.0</v>
+        <v>1392713.0</v>
       </c>
       <c r="B22" t="n">
-        <v>959.3186282540831</v>
+        <v>959.1007444528294</v>
       </c>
       <c r="C22" t="n">
-        <v>2.963392873125126E12</v>
+        <v>3.7263018456337637E12</v>
       </c>
       <c r="D22" t="n">
-        <v>6.670959347559503E8</v>
+        <v>8.384802649300482E8</v>
       </c>
       <c r="E22" t="n">
-        <v>101911.3186281164</v>
+        <v>128121.78074091373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1461320.0</v>
+        <v>1461131.0</v>
       </c>
       <c r="B23" t="n">
-        <v>959.7991097993146</v>
+        <v>959.0397887334505</v>
       </c>
       <c r="C23" t="n">
-        <v>2.963301249586045E12</v>
+        <v>3.9038059825234297E12</v>
       </c>
       <c r="D23" t="n">
-        <v>6.669571413058434E8</v>
+        <v>8.784152355710466E8</v>
       </c>
       <c r="E23" t="n">
-        <v>101911.79910966237</v>
+        <v>134195.27978497578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1524585.0</v>
+        <v>1523284.0</v>
       </c>
       <c r="B24" t="n">
-        <v>959.308977874974</v>
+        <v>959.8017490610532</v>
       </c>
       <c r="C24" t="n">
-        <v>2.9627222848627954E12</v>
+        <v>4.072713798388471E12</v>
       </c>
       <c r="D24" t="n">
-        <v>6.668498244339076E8</v>
+        <v>9.166475658308747E8</v>
       </c>
       <c r="E24" t="n">
-        <v>101925.30897773715</v>
+        <v>140356.84174511474</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1594329.0</v>
+        <v>1594419.0</v>
       </c>
       <c r="B25" t="n">
-        <v>959.5841879311876</v>
+        <v>959.6870048339687</v>
       </c>
       <c r="C25" t="n">
-        <v>2.9626804246767173E12</v>
+        <v>4.2572705108651167E12</v>
       </c>
       <c r="D25" t="n">
-        <v>6.666703442049644E8</v>
+        <v>9.581222082267183E8</v>
       </c>
       <c r="E25" t="n">
-        <v>101909.58418779362</v>
+        <v>146293.36700070018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1657090.0</v>
+        <v>1660525.0</v>
       </c>
       <c r="B26" t="n">
-        <v>959.1672655077429</v>
+        <v>959.5364761268561</v>
       </c>
       <c r="C26" t="n">
-        <v>2.9616806685294736E12</v>
+        <v>4.430576889449647E12</v>
       </c>
       <c r="D26" t="n">
-        <v>6.666027125521823E8</v>
+        <v>9.97794979777978E8</v>
       </c>
       <c r="E26" t="n">
-        <v>101901.16726536996</v>
+        <v>152395.03647179194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1728011.0</v>
+        <v>1725007.0</v>
       </c>
       <c r="B27" t="n">
-        <v>960.3563587050373</v>
+        <v>959.5680441268114</v>
       </c>
       <c r="C27" t="n">
-        <v>2.9649508524045205E12</v>
+        <v>4.604153352767957E12</v>
       </c>
       <c r="D27" t="n">
-        <v>6.671905917040585E8</v>
+        <v>1.0362719446848135E9</v>
       </c>
       <c r="E27" t="n">
-        <v>101924.35635856702</v>
+        <v>158450.6880395968</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1792268.0</v>
+        <v>1792100.0</v>
       </c>
       <c r="B28" t="n">
-        <v>959.7554528510846</v>
+        <v>959.5338035421674</v>
       </c>
       <c r="C28" t="n">
-        <v>2.964447013465534E12</v>
+        <v>4.784259317007264E12</v>
       </c>
       <c r="D28" t="n">
-        <v>6.673137152173808E8</v>
+        <v>1.076760974179747E9</v>
       </c>
       <c r="E28" t="n">
-        <v>101932.75545271368</v>
+        <v>164556.37379880302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1859467.0</v>
+        <v>1856169.0</v>
       </c>
       <c r="B29" t="n">
-        <v>960.1471547495421</v>
+        <v>960.185570107248</v>
       </c>
       <c r="C29" t="n">
-        <v>2.9657399354023037E12</v>
+        <v>4.958875668344966E12</v>
       </c>
       <c r="D29" t="n">
-        <v>6.672749212259178E8</v>
+        <v>1.115923259450139E9</v>
       </c>
       <c r="E29" t="n">
-        <v>101930.14715461202</v>
+        <v>170599.145565162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1922596.0</v>
+        <v>1922952.0</v>
       </c>
       <c r="B30" t="n">
-        <v>960.3152587744233</v>
+        <v>959.7761884227557</v>
       </c>
       <c r="C30" t="n">
-        <v>2.9616798486542056E12</v>
+        <v>5.137701534486436E12</v>
       </c>
       <c r="D30" t="n">
-        <v>6.665949898227134E8</v>
+        <v>1.15595786420482E9</v>
       </c>
       <c r="E30" t="n">
-        <v>101993.31525863656</v>
+        <v>176622.25618327453</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1994756.0</v>
+        <v>1988909.0</v>
       </c>
       <c r="B31" t="n">
-        <v>959.6978950091094</v>
+        <v>959.2856940001129</v>
       </c>
       <c r="C31" t="n">
-        <v>2.9673323410611914E12</v>
+        <v>5.317504613427499E12</v>
       </c>
       <c r="D31" t="n">
-        <v>6.67791934725407E8</v>
+        <v>1.196170990564489E9</v>
       </c>
       <c r="E31" t="n">
-        <v>101920.69789487091</v>
+        <v>182678.88568864582</v>
       </c>
     </row>
   </sheetData>
